--- a/Example_Datasets/ExampleOutputs/Fixed_Interval/Ex_Fixed_ISC_analysis/Ex_Fixed_ISC_analysis.xlsx
+++ b/Example_Datasets/ExampleOutputs/Fixed_Interval/Ex_Fixed_ISC_analysis/Ex_Fixed_ISC_analysis.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Version 1.0 (03/01/2025)</t>
+          <t>Version 1.1 (12/01/2025)</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-12-04</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:/GitHub/WWRC/SEPARATE/Example_Datasets/ExampleData_FixedInterval.xlsx</t>
+          <t>C:/Users/Scott/Desktop/ExampleOutputs/ExampleData_FixedInterval.xlsx</t>
         </is>
       </c>
     </row>
@@ -703,13 +703,13 @@
         <v>0.1</v>
       </c>
       <c r="B23" t="n">
-        <v>3.041105683375138</v>
+        <v>3.041</v>
       </c>
       <c r="C23" t="n">
-        <v>55.64254166666667</v>
+        <v>55.64</v>
       </c>
       <c r="D23" t="n">
-        <v>169.2148496999379</v>
+        <v>169.21</v>
       </c>
       <c r="E23" t="n">
         <v>41</v>
@@ -723,13 +723,13 @@
         <v>0.2</v>
       </c>
       <c r="B24" t="n">
-        <v>2.788041209805646</v>
+        <v>2.788</v>
       </c>
       <c r="C24" t="n">
-        <v>54.4913988095238</v>
+        <v>54.49</v>
       </c>
       <c r="D24" t="n">
-        <v>151.9242654609067</v>
+        <v>151.92</v>
       </c>
       <c r="E24" t="n">
         <v>57</v>
@@ -743,13 +743,13 @@
         <v>0.3</v>
       </c>
       <c r="B25" t="n">
-        <v>2.762571014849482</v>
+        <v>2.763</v>
       </c>
       <c r="C25" t="n">
-        <v>56.8402205882353</v>
+        <v>56.84</v>
       </c>
       <c r="D25" t="n">
-        <v>157.0251458747096</v>
+        <v>157.03</v>
       </c>
       <c r="E25" t="n">
         <v>69</v>
@@ -763,13 +763,13 @@
         <v>0.4</v>
       </c>
       <c r="B26" t="n">
-        <v>2.472917076115896</v>
+        <v>2.473</v>
       </c>
       <c r="C26" t="n">
-        <v>66.94494131455399</v>
+        <v>66.94</v>
       </c>
       <c r="D26" t="n">
-        <v>165.5492885363371</v>
+        <v>165.55</v>
       </c>
       <c r="E26" t="n">
         <v>72</v>
@@ -783,13 +783,13 @@
         <v>0.5</v>
       </c>
       <c r="B27" t="n">
-        <v>2.328816699045278</v>
+        <v>2.329</v>
       </c>
       <c r="C27" t="n">
-        <v>65.82212606837606</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>153.2876663546977</v>
+        <v>153.29</v>
       </c>
       <c r="E27" t="n">
         <v>79</v>
@@ -803,13 +803,13 @@
         <v>0.6</v>
       </c>
       <c r="B28" t="n">
-        <v>2.165073207619245</v>
+        <v>2.165</v>
       </c>
       <c r="C28" t="n">
-        <v>72.77834444444443</v>
+        <v>72.78</v>
       </c>
       <c r="D28" t="n">
-        <v>157.5704436515516</v>
+        <v>157.57</v>
       </c>
       <c r="E28" t="n">
         <v>76</v>
@@ -823,13 +823,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>2.105388467281299</v>
+        <v>2.105</v>
       </c>
       <c r="C29" t="n">
-        <v>76.01818287037037</v>
+        <v>76.02</v>
       </c>
       <c r="D29" t="n">
-        <v>160.0478055189586</v>
+        <v>160.05</v>
       </c>
       <c r="E29" t="n">
         <v>73</v>
@@ -843,13 +843,13 @@
         <v>0.8</v>
       </c>
       <c r="B30" t="n">
-        <v>1.984519612517695</v>
+        <v>1.985</v>
       </c>
       <c r="C30" t="n">
-        <v>79.71296171171171</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>158.191935888764</v>
+        <v>158.19</v>
       </c>
       <c r="E30" t="n">
         <v>75</v>
@@ -863,13 +863,13 @@
         <v>0.9</v>
       </c>
       <c r="B31" t="n">
-        <v>1.954949005453461</v>
+        <v>1.955</v>
       </c>
       <c r="C31" t="n">
-        <v>81.14201576576576</v>
+        <v>81.14</v>
       </c>
       <c r="D31" t="n">
-        <v>158.6285030217728</v>
+        <v>158.63</v>
       </c>
       <c r="E31" t="n">
         <v>75</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1.737562863619645</v>
+        <v>1.738</v>
       </c>
       <c r="C32" t="n">
-        <v>95.8780518018018</v>
+        <v>95.88</v>
       </c>
       <c r="D32" t="n">
-        <v>166.5941422470113</v>
+        <v>166.59</v>
       </c>
       <c r="E32" t="n">
         <v>75</v>
@@ -903,13 +903,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>1.538331156518294</v>
+        <v>1.538</v>
       </c>
       <c r="C33" t="n">
-        <v>122.955130952381</v>
+        <v>122.96</v>
       </c>
       <c r="D33" t="n">
-        <v>189.1457087978344</v>
+        <v>189.15</v>
       </c>
       <c r="E33" t="n">
         <v>71</v>
@@ -923,13 +923,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="n">
-        <v>1.414314742137678</v>
+        <v>1.414</v>
       </c>
       <c r="C34" t="n">
-        <v>136.6614230769231</v>
+        <v>136.66</v>
       </c>
       <c r="D34" t="n">
-        <v>193.2822653392066</v>
+        <v>193.28</v>
       </c>
       <c r="E34" t="n">
         <v>66</v>
@@ -943,13 +943,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>1.372471349892725</v>
+        <v>1.372</v>
       </c>
       <c r="C35" t="n">
-        <v>140.9324348958333</v>
+        <v>140.93</v>
       </c>
       <c r="D35" t="n">
-        <v>193.4257291651529</v>
+        <v>193.43</v>
       </c>
       <c r="E35" t="n">
         <v>65</v>
@@ -963,13 +963,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>1.357043051323441</v>
+        <v>1.357</v>
       </c>
       <c r="C36" t="n">
-        <v>143.1006746031746</v>
+        <v>143.1</v>
       </c>
       <c r="D36" t="n">
-        <v>194.1937761099349</v>
+        <v>194.19</v>
       </c>
       <c r="E36" t="n">
         <v>64</v>
@@ -983,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="n">
-        <v>1.312532354150444</v>
+        <v>1.313</v>
       </c>
       <c r="C37" t="n">
-        <v>149.7940416666667</v>
+        <v>149.79</v>
       </c>
       <c r="D37" t="n">
-        <v>196.6095261464597</v>
+        <v>196.61</v>
       </c>
       <c r="E37" t="n">
         <v>61</v>
@@ -1003,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>1.295440347218238</v>
+        <v>1.295</v>
       </c>
       <c r="C38" t="n">
-        <v>152.7240416666667</v>
+        <v>152.72</v>
       </c>
       <c r="D38" t="n">
-        <v>197.8448855652393</v>
+        <v>197.84</v>
       </c>
       <c r="E38" t="n">
         <v>61</v>
@@ -1023,13 +1023,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>1.216779051689125</v>
+        <v>1.217</v>
       </c>
       <c r="C39" t="n">
-        <v>163.6305701754386</v>
+        <v>163.63</v>
       </c>
       <c r="D39" t="n">
-        <v>199.102250005421</v>
+        <v>199.1</v>
       </c>
       <c r="E39" t="n">
         <v>58</v>
@@ -1043,13 +1043,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="n">
-        <v>1.185079510514949</v>
+        <v>1.185</v>
       </c>
       <c r="C40" t="n">
-        <v>169.1235</v>
+        <v>169.12</v>
       </c>
       <c r="D40" t="n">
-        <v>200.4247945965749</v>
+        <v>200.42</v>
       </c>
       <c r="E40" t="n">
         <v>56</v>
@@ -1063,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>1.135326690328882</v>
+        <v>1.135</v>
       </c>
       <c r="C41" t="n">
-        <v>178.1354326923077</v>
+        <v>178.14</v>
       </c>
       <c r="D41" t="n">
-        <v>202.2419112288609</v>
+        <v>202.24</v>
       </c>
       <c r="E41" t="n">
         <v>53</v>
@@ -1083,13 +1083,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="n">
-        <v>1.135326690328882</v>
+        <v>1.135</v>
       </c>
       <c r="C42" t="n">
-        <v>178.1354326923077</v>
+        <v>178.14</v>
       </c>
       <c r="D42" t="n">
-        <v>202.2419112288609</v>
+        <v>202.24</v>
       </c>
       <c r="E42" t="n">
         <v>53</v>
@@ -1103,13 +1103,13 @@
         <v>12</v>
       </c>
       <c r="B43" t="n">
-        <v>1.103248904008978</v>
+        <v>1.103</v>
       </c>
       <c r="C43" t="n">
-        <v>184.57485</v>
+        <v>184.57</v>
       </c>
       <c r="D43" t="n">
-        <v>203.6320009701214</v>
+        <v>203.63</v>
       </c>
       <c r="E43" t="n">
         <v>51</v>
@@ -1123,13 +1123,13 @@
         <v>13</v>
       </c>
       <c r="B44" t="n">
-        <v>1.067853761439014</v>
+        <v>1.068</v>
       </c>
       <c r="C44" t="n">
-        <v>191.7363020833333</v>
+        <v>191.74</v>
       </c>
       <c r="D44" t="n">
-        <v>204.7463313840946</v>
+        <v>204.75</v>
       </c>
       <c r="E44" t="n">
         <v>49</v>
@@ -1143,13 +1143,13 @@
         <v>14</v>
       </c>
       <c r="B45" t="n">
-        <v>1.049819104398641</v>
+        <v>1.05</v>
       </c>
       <c r="C45" t="n">
-        <v>195.5179255319149</v>
+        <v>195.52</v>
       </c>
       <c r="D45" t="n">
-        <v>205.2584534757951</v>
+        <v>205.26</v>
       </c>
       <c r="E45" t="n">
         <v>48</v>
@@ -1163,13 +1163,13 @@
         <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9933669968473356</v>
+        <v>0.993</v>
       </c>
       <c r="C46" t="n">
-        <v>207.852481060606</v>
+        <v>207.85</v>
       </c>
       <c r="D46" t="n">
-        <v>206.4737948984419</v>
+        <v>206.47</v>
       </c>
       <c r="E46" t="n">
         <v>45</v>
@@ -1183,13 +1183,13 @@
         <v>16</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9933669968473356</v>
+        <v>0.993</v>
       </c>
       <c r="C47" t="n">
-        <v>207.852481060606</v>
+        <v>207.85</v>
       </c>
       <c r="D47" t="n">
-        <v>206.4737948984419</v>
+        <v>206.47</v>
       </c>
       <c r="E47" t="n">
         <v>45</v>
@@ -1203,13 +1203,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9933669968473356</v>
+        <v>0.993</v>
       </c>
       <c r="C48" t="n">
-        <v>207.852481060606</v>
+        <v>207.85</v>
       </c>
       <c r="D48" t="n">
-        <v>206.4737948984419</v>
+        <v>206.47</v>
       </c>
       <c r="E48" t="n">
         <v>45</v>
@@ -1223,13 +1223,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9945251595623086</v>
+        <v>0.995</v>
       </c>
       <c r="C49" t="n">
-        <v>207.4585416666667</v>
+        <v>207.46</v>
       </c>
       <c r="D49" t="n">
-        <v>206.3227392536055</v>
+        <v>206.32</v>
       </c>
       <c r="E49" t="n">
         <v>45</v>
@@ -1243,13 +1243,13 @@
         <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9885119829708233</v>
+        <v>0.989</v>
       </c>
       <c r="C50" t="n">
-        <v>208.1536174242424</v>
+        <v>208.15</v>
       </c>
       <c r="D50" t="n">
-        <v>205.762345122588</v>
+        <v>205.76</v>
       </c>
       <c r="E50" t="n">
         <v>45</v>
@@ -1263,13 +1263,13 @@
         <v>20</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9344236635526816</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>221.4778658536586</v>
+        <v>221.48</v>
       </c>
       <c r="D51" t="n">
-        <v>206.954158806805</v>
+        <v>206.95</v>
       </c>
       <c r="E51" t="n">
         <v>42</v>
@@ -1283,13 +1283,13 @@
         <v>21</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9141536654130059</v>
+        <v>0.914</v>
       </c>
       <c r="C52" t="n">
-        <v>226.4943958333333</v>
+        <v>226.49</v>
       </c>
       <c r="D52" t="n">
-        <v>207.0506821465459</v>
+        <v>207.05</v>
       </c>
       <c r="E52" t="n">
         <v>41</v>
@@ -1303,13 +1303,13 @@
         <v>22</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9141536654130059</v>
+        <v>0.914</v>
       </c>
       <c r="C53" t="n">
-        <v>226.4943958333333</v>
+        <v>226.49</v>
       </c>
       <c r="D53" t="n">
-        <v>207.0506821465459</v>
+        <v>207.05</v>
       </c>
       <c r="E53" t="n">
         <v>41</v>
@@ -1323,13 +1323,13 @@
         <v>23</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C54" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D54" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E54" t="n">
         <v>41</v>
@@ -1343,13 +1343,13 @@
         <v>24</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C55" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D55" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E55" t="n">
         <v>41</v>
@@ -1363,13 +1363,13 @@
         <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C56" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D56" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E56" t="n">
         <v>41</v>
@@ -1383,13 +1383,13 @@
         <v>26</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C57" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D57" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E57" t="n">
         <v>41</v>
@@ -1403,13 +1403,13 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C58" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D58" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E58" t="n">
         <v>41</v>
@@ -1423,13 +1423,13 @@
         <v>28</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9181690507020877</v>
+        <v>0.918</v>
       </c>
       <c r="C59" t="n">
-        <v>225.9268958333334</v>
+        <v>225.93</v>
       </c>
       <c r="D59" t="n">
-        <v>207.4390834753611</v>
+        <v>207.44</v>
       </c>
       <c r="E59" t="n">
         <v>41</v>
@@ -1443,13 +1443,13 @@
         <v>29</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8988254928307123</v>
+        <v>0.899</v>
       </c>
       <c r="C60" t="n">
-        <v>230.9963888888889</v>
+        <v>231</v>
       </c>
       <c r="D60" t="n">
-        <v>207.6254430851704</v>
+        <v>207.63</v>
       </c>
       <c r="E60" t="n">
         <v>40</v>
@@ -1463,13 +1463,13 @@
         <v>30</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8988254928307123</v>
+        <v>0.899</v>
       </c>
       <c r="C61" t="n">
-        <v>230.9963888888889</v>
+        <v>231</v>
       </c>
       <c r="D61" t="n">
-        <v>207.6254430851704</v>
+        <v>207.63</v>
       </c>
       <c r="E61" t="n">
         <v>40</v>
@@ -1483,13 +1483,13 @@
         <v>31</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8988254928307123</v>
+        <v>0.899</v>
       </c>
       <c r="C62" t="n">
-        <v>230.9963888888889</v>
+        <v>231</v>
       </c>
       <c r="D62" t="n">
-        <v>207.6254430851704</v>
+        <v>207.63</v>
       </c>
       <c r="E62" t="n">
         <v>40</v>
@@ -1503,13 +1503,13 @@
         <v>32</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8769267029252323</v>
+        <v>0.877</v>
       </c>
       <c r="C63" t="n">
-        <v>236.6848903508772</v>
+        <v>236.68</v>
       </c>
       <c r="D63" t="n">
-        <v>207.5553005276149</v>
+        <v>207.56</v>
       </c>
       <c r="E63" t="n">
         <v>39</v>
@@ -1523,13 +1523,13 @@
         <v>33</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C64" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D64" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E64" t="n">
         <v>38</v>
@@ -1543,13 +1543,13 @@
         <v>34</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C65" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D65" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E65" t="n">
         <v>38</v>
@@ -1563,13 +1563,13 @@
         <v>35</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C66" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D66" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E66" t="n">
         <v>38</v>
@@ -1583,13 +1583,13 @@
         <v>36</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C67" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D67" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E67" t="n">
         <v>38</v>
@@ -1603,13 +1603,13 @@
         <v>37</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C68" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D68" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E68" t="n">
         <v>38</v>
@@ -1623,13 +1623,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C69" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D69" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E69" t="n">
         <v>38</v>
@@ -1643,13 +1643,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C70" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D70" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E70" t="n">
         <v>38</v>
@@ -1663,13 +1663,13 @@
         <v>40</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C71" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D71" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E71" t="n">
         <v>38</v>
@@ -1683,13 +1683,13 @@
         <v>41</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C72" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D72" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E72" t="n">
         <v>38</v>
@@ -1703,13 +1703,13 @@
         <v>42</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8569831002548542</v>
+        <v>0.857</v>
       </c>
       <c r="C73" t="n">
-        <v>242.2079054054054</v>
+        <v>242.21</v>
       </c>
       <c r="D73" t="n">
-        <v>207.5680816805588</v>
+        <v>207.57</v>
       </c>
       <c r="E73" t="n">
         <v>38</v>
@@ -1723,13 +1723,13 @@
         <v>43</v>
       </c>
       <c r="B74" t="n">
-        <v>0.838427854202356</v>
+        <v>0.838</v>
       </c>
       <c r="C74" t="n">
-        <v>247.7484027777778</v>
+        <v>247.75</v>
       </c>
       <c r="D74" t="n">
-        <v>207.7191617230333</v>
+        <v>207.72</v>
       </c>
       <c r="E74" t="n">
         <v>37</v>
@@ -1743,13 +1743,13 @@
         <v>44</v>
       </c>
       <c r="B75" t="n">
-        <v>0.838427854202356</v>
+        <v>0.838</v>
       </c>
       <c r="C75" t="n">
-        <v>247.7484027777778</v>
+        <v>247.75</v>
       </c>
       <c r="D75" t="n">
-        <v>207.7191617230333</v>
+        <v>207.72</v>
       </c>
       <c r="E75" t="n">
         <v>37</v>
@@ -1763,13 +1763,13 @@
         <v>45</v>
       </c>
       <c r="B76" t="n">
-        <v>0.838427854202356</v>
+        <v>0.838</v>
       </c>
       <c r="C76" t="n">
-        <v>247.7484027777778</v>
+        <v>247.75</v>
       </c>
       <c r="D76" t="n">
-        <v>207.7191617230333</v>
+        <v>207.72</v>
       </c>
       <c r="E76" t="n">
         <v>37</v>
@@ -1783,13 +1783,13 @@
         <v>46</v>
       </c>
       <c r="B77" t="n">
-        <v>0.838427854202356</v>
+        <v>0.838</v>
       </c>
       <c r="C77" t="n">
-        <v>247.7484027777778</v>
+        <v>247.75</v>
       </c>
       <c r="D77" t="n">
-        <v>207.7191617230333</v>
+        <v>207.72</v>
       </c>
       <c r="E77" t="n">
         <v>37</v>
@@ -1803,13 +1803,13 @@
         <v>47</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8004563236621566</v>
+        <v>0.8</v>
       </c>
       <c r="C78" t="n">
-        <v>259.5703676470588</v>
+        <v>259.57</v>
       </c>
       <c r="D78" t="n">
-        <v>207.7747422183991</v>
+        <v>207.77</v>
       </c>
       <c r="E78" t="n">
         <v>35</v>
@@ -1823,13 +1823,13 @@
         <v>48</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8085056859247262</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>258.1610539215686</v>
+        <v>258.16</v>
       </c>
       <c r="D79" t="n">
-        <v>208.724679979908</v>
+        <v>208.72</v>
       </c>
       <c r="E79" t="n">
         <v>35</v>

--- a/Example_Datasets/ExampleOutputs/Fixed_Interval/Ex_Fixed_ISC_analysis/Ex_Fixed_ISC_analysis.xlsx
+++ b/Example_Datasets/ExampleOutputs/Fixed_Interval/Ex_Fixed_ISC_analysis/Ex_Fixed_ISC_analysis.xlsx
@@ -630,7 +630,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C:/Users/Scott/Desktop/ExampleOutputs/ExampleData_FixedInterval.xlsx</t>
+          <t>C:/Users/Scott/Desktop/Example_Datasets/ExampleData_FixedInterval.xlsx</t>
         </is>
       </c>
     </row>
